--- a/Nowcasts/2025Q4/tables/nowcasts_2026Q1_Nr10_Np1_Nj0.xlsx
+++ b/Nowcasts/2025Q4/tables/nowcasts_2026Q1_Nr10_Np1_Nj0.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="59">
   <si>
     <t>Row</t>
   </si>
@@ -109,6 +109,57 @@
   </si>
   <si>
     <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>Prognose</t>
+  </si>
+  <si>
+    <t>surveys</t>
+  </si>
+  <si>
+    <t>production</t>
+  </si>
+  <si>
+    <t>orders</t>
+  </si>
+  <si>
+    <t>turnover</t>
+  </si>
+  <si>
+    <t>financial</t>
+  </si>
+  <si>
+    <t>labor market</t>
+  </si>
+  <si>
+    <t>prices</t>
+  </si>
+  <si>
+    <t>national accounts</t>
+  </si>
+  <si>
+    <t>Revision</t>
+  </si>
+  <si>
+    <t>Row</t>
+  </si>
+  <si>
+    <t>2025-09-30</t>
+  </si>
+  <si>
+    <t>2025-10-15</t>
+  </si>
+  <si>
+    <t>2025-10-30</t>
+  </si>
+  <si>
+    <t>2025-11-15</t>
+  </si>
+  <si>
+    <t>2025-11-30</t>
+  </si>
+  <si>
+    <t>2025-12-15</t>
   </si>
   <si>
     <t>Prognose</t>
@@ -192,55 +243,55 @@
     <col min="3" max="3" width="14.24609375" customWidth="true"/>
     <col min="4" max="4" width="16.24609375" customWidth="true"/>
     <col min="5" max="5" width="16.24609375" customWidth="true"/>
-    <col min="6" max="6" width="16.24609375" customWidth="true"/>
-    <col min="7" max="7" width="15.64453125" customWidth="true"/>
-    <col min="8" max="8" width="16.24609375" customWidth="true"/>
+    <col min="6" max="6" width="15.1796875" customWidth="true"/>
+    <col min="7" max="7" width="15.24609375" customWidth="true"/>
+    <col min="8" max="8" width="15.77734375" customWidth="true"/>
     <col min="9" max="9" width="16.24609375" customWidth="true"/>
-    <col min="10" max="10" width="15.64453125" customWidth="true"/>
-    <col min="11" max="11" width="16.24609375" customWidth="true"/>
+    <col min="10" max="10" width="15.046875" customWidth="true"/>
+    <col min="11" max="11" width="15.77734375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>21</v>
+        <v>42</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>32</v>
+        <v>49</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>33</v>
+        <v>50</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>34</v>
+        <v>51</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>35</v>
+        <v>52</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>36</v>
+        <v>53</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>37</v>
+        <v>54</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>40</v>
+        <v>57</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>41</v>
+        <v>58</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" s="0" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="B2" s="0">
-        <v>0.2346141085947426</v>
+        <v>0.27542368938497669</v>
       </c>
       <c r="C2" s="0">
         <v>0</v>
@@ -272,177 +323,177 @@
     </row>
     <row r="3">
       <c r="A3" s="0" t="s">
-        <v>23</v>
+        <v>44</v>
       </c>
       <c r="B3" s="0">
-        <v>0.2381003851011915</v>
+        <v>0.27600624442285482</v>
       </c>
       <c r="C3" s="0">
         <v>0</v>
       </c>
       <c r="D3" s="0">
-        <v>0.0024138694405455735</v>
+        <v>-0.00054505057472851006</v>
       </c>
       <c r="E3" s="0">
-        <v>-0.00040682830367373414</v>
+        <v>0.00095968984101283945</v>
       </c>
       <c r="F3" s="0">
-        <v>0.003264718192897656</v>
+        <v>0.0016516213937664231</v>
       </c>
       <c r="G3" s="0">
-        <v>0.0003883848364749849</v>
+        <v>0.001387991156290887</v>
       </c>
       <c r="H3" s="0">
-        <v>4.3163970092430641e-06</v>
+        <v>-4.0940504011610656e-05</v>
       </c>
       <c r="I3" s="0">
-        <v>-0.00021222712190732947</v>
+        <v>-0.00017837202157341476</v>
       </c>
       <c r="J3" s="0">
         <v>0</v>
       </c>
       <c r="K3" s="0">
-        <v>5.6502289529108962e-05</v>
+        <v>0.00012049809947778378</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="0" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="B4" s="0">
-        <v>0.307541056978066</v>
+        <v>0.35721374530323058</v>
       </c>
       <c r="C4" s="0">
-        <v>0.030108894823794106</v>
+        <v>0.056517975558058542</v>
       </c>
       <c r="D4" s="0">
         <v>0</v>
       </c>
       <c r="E4" s="0">
-        <v>-3.8657796832435883e-05</v>
+        <v>-0.00019298174139811754</v>
       </c>
       <c r="F4" s="0">
-        <v>-0.00030393425677917486</v>
+        <v>2.1033098067586637e-06</v>
       </c>
       <c r="G4" s="0">
         <v>0</v>
       </c>
       <c r="H4" s="0">
-        <v>-2.7412865870124744e-07</v>
+        <v>0.00064808978942621919</v>
       </c>
       <c r="I4" s="0">
-        <v>0.00021987732575370908</v>
+        <v>0.0017505463688082328</v>
       </c>
       <c r="J4" s="0">
-        <v>0.00065692941308001225</v>
+        <v>0.0033534147901798732</v>
       </c>
       <c r="K4" s="0">
-        <v>-4.4867517156321757e-06</v>
+        <v>-6.5464596027742239e-05</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="0" t="s">
-        <v>25</v>
+        <v>46</v>
       </c>
       <c r="B5" s="0">
-        <v>0.32925091691443592</v>
+        <v>0.30733777652680849</v>
       </c>
       <c r="C5" s="0">
         <v>0</v>
       </c>
       <c r="D5" s="0">
-        <v>0.0065139941623331013</v>
+        <v>0.00034843227590949406</v>
       </c>
       <c r="E5" s="0">
-        <v>0.0014649926307338718</v>
+        <v>-0.0016054093380629387</v>
       </c>
       <c r="F5" s="0">
-        <v>0.003891872628583233</v>
+        <v>0.011643809053714666</v>
       </c>
       <c r="G5" s="0">
-        <v>0.00031997556313109288</v>
+        <v>-0.0030629124637942345</v>
       </c>
       <c r="H5" s="0">
-        <v>7.7969293095893528e-05</v>
+        <v>0.00021054422943723685</v>
       </c>
       <c r="I5" s="0">
-        <v>0.00078582089110936447</v>
+        <v>-0.00027013226793090372</v>
       </c>
       <c r="J5" s="0">
         <v>0</v>
       </c>
       <c r="K5" s="0">
-        <v>0.00049985792031370657</v>
+        <v>-0.011989028776616228</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="0" t="s">
-        <v>26</v>
+        <v>47</v>
       </c>
       <c r="B6" s="0">
-        <v>0.31562941531685251</v>
+        <v>0.22535638213167042</v>
       </c>
       <c r="C6" s="0">
-        <v>-0.020352019373033405</v>
+        <v>-0.029583831479153687</v>
       </c>
       <c r="D6" s="0">
         <v>0</v>
       </c>
       <c r="E6" s="0">
-        <v>0.00011129063027389698</v>
+        <v>-0.0046189933715279846</v>
       </c>
       <c r="F6" s="0">
-        <v>0.00014888290030435608</v>
+        <v>0.00066098148898444619</v>
       </c>
       <c r="G6" s="0">
         <v>0</v>
       </c>
       <c r="H6" s="0">
-        <v>-0.00010651144876857284</v>
+        <v>0.0016721532257435257</v>
       </c>
       <c r="I6" s="0">
-        <v>-0.00028631943464014722</v>
+        <v>-0.013921219016512229</v>
       </c>
       <c r="J6" s="0">
         <v>0</v>
       </c>
       <c r="K6" s="0">
-        <v>1.8964004793731171e-05</v>
+        <v>-1.1684333257322432e-05</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="0" t="s">
-        <v>27</v>
+        <v>48</v>
       </c>
       <c r="B7" s="0">
-        <v>0.32196350810702928</v>
+        <v>0.25866158402573242</v>
       </c>
       <c r="C7" s="0">
         <v>0</v>
       </c>
       <c r="D7" s="0">
-        <v>-0.0040576530490415222</v>
+        <v>-0.033165550624100273</v>
       </c>
       <c r="E7" s="0">
-        <v>-0.0043514121502767119</v>
+        <v>-0.00046343405080691372</v>
       </c>
       <c r="F7" s="0">
-        <v>-0.0063932277121334247</v>
+        <v>0.0096096374886073047</v>
       </c>
       <c r="G7" s="0">
-        <v>0.00035873481608641387</v>
+        <v>0.0021870738249456386</v>
       </c>
       <c r="H7" s="0">
-        <v>-6.1913152191232939e-05</v>
+        <v>0</v>
       </c>
       <c r="I7" s="0">
-        <v>-0.00012577131418741816</v>
+        <v>0</v>
       </c>
       <c r="J7" s="0">
         <v>0</v>
       </c>
       <c r="K7" s="0">
-        <v>-0.0010863474717798804</v>
+        <v>-0.0010245163857025008</v>
       </c>
     </row>
     <row r="8">
